--- a/Rmarkdown_writting/Material_and_method/sample_table_with_new_ECe_values.xlsx
+++ b/Rmarkdown_writting/Material_and_method/sample_table_with_new_ECe_values.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
-  <si>
-    <t xml:space="preserve">site_id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t xml:space="preserve">sample_id</t>
   </si>
   <si>
     <t xml:space="preserve">Longitude</t>
@@ -23,40 +23,19 @@
     <t xml:space="preserve">Latitude</t>
   </si>
   <si>
-    <t xml:space="preserve">Altitude</t>
+    <t xml:space="preserve">ECe_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECe_new_value</t>
   </si>
   <si>
     <t xml:space="preserve">pH_water</t>
   </si>
   <si>
-    <t xml:space="preserve">sample_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECe_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECe_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bulk</t>
-  </si>
-  <si>
     <t xml:space="preserve">B_1_1</t>
   </si>
   <si>
-    <t xml:space="preserve">ECe_bulk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rhizo</t>
-  </si>
-  <si>
     <t xml:space="preserve">R_1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECe_rhizo</t>
   </si>
   <si>
     <t xml:space="preserve">B_1_2</t>
@@ -545,19 +524,10 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>43.208853</v>
@@ -566,25 +536,16 @@
         <v>3.058241</v>
       </c>
       <c r="D2" t="n">
-        <v>58.161011</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="n">
         <v>2.789</v>
       </c>
+      <c r="E2" t="n">
+        <v>2.89626923076923</v>
+      </c>
+      <c r="F2"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>43.208853</v>
@@ -593,25 +554,16 @@
         <v>3.058241</v>
       </c>
       <c r="D3" t="n">
-        <v>58.161011</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="n">
         <v>4.219</v>
       </c>
+      <c r="E3" t="n">
+        <v>4.38126923076923</v>
+      </c>
+      <c r="F3"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>43.208851</v>
@@ -620,27 +572,18 @@
         <v>3.058272</v>
       </c>
       <c r="D4" t="n">
-        <v>55.196899</v>
+        <v>2.418</v>
       </c>
       <c r="E4" t="n">
+        <v>2.511</v>
+      </c>
+      <c r="F4" t="n">
         <v>8.54</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.418</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>43.208851</v>
@@ -649,25 +592,16 @@
         <v>3.058272</v>
       </c>
       <c r="D5" t="n">
-        <v>55.196899</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="n">
         <v>2.49</v>
       </c>
+      <c r="E5" t="n">
+        <v>2.58576923076923</v>
+      </c>
+      <c r="F5"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>43.208858</v>
@@ -676,25 +610,16 @@
         <v>3.058311</v>
       </c>
       <c r="D6" t="n">
-        <v>56.714844</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
+        <v>3.25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
       </c>
       <c r="B7" t="n">
         <v>43.208858</v>
@@ -703,25 +628,16 @@
         <v>3.058311</v>
       </c>
       <c r="D7" t="n">
-        <v>56.714844</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7" t="s">
+        <v>3.289</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.4155</v>
+      </c>
+      <c r="F7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.289</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>43.209332</v>
@@ -730,27 +646,18 @@
         <v>3.059185</v>
       </c>
       <c r="D8" t="n">
-        <v>51.895996</v>
+        <v>2.659</v>
       </c>
       <c r="E8" t="n">
+        <v>2.76126923076923</v>
+      </c>
+      <c r="F8" t="n">
         <v>8.29</v>
       </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.659</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
+      <c r="A9" t="s">
+        <v>13</v>
       </c>
       <c r="B9" t="n">
         <v>43.209332</v>
@@ -759,25 +666,16 @@
         <v>3.059185</v>
       </c>
       <c r="D9" t="n">
-        <v>51.895996</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
+        <v>3.38</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
         <v>14</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.38</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>43.209291</v>
@@ -786,25 +684,16 @@
         <v>3.059137</v>
       </c>
       <c r="D10" t="n">
-        <v>55.116211</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="n">
         <v>2.925</v>
       </c>
+      <c r="E10" t="n">
+        <v>3.0375</v>
+      </c>
+      <c r="F10"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
+      <c r="A11" t="s">
+        <v>15</v>
       </c>
       <c r="B11" t="n">
         <v>43.209291</v>
@@ -813,25 +702,16 @@
         <v>3.059137</v>
       </c>
       <c r="D11" t="n">
-        <v>55.116211</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="n">
         <v>3.081</v>
       </c>
+      <c r="E11" t="n">
+        <v>3.1995</v>
+      </c>
+      <c r="F11"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
+      <c r="A12" t="s">
+        <v>16</v>
       </c>
       <c r="B12" t="n">
         <v>43.209351</v>
@@ -840,25 +720,16 @@
         <v>3.059172</v>
       </c>
       <c r="D12" t="n">
-        <v>59.459473</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="n">
         <v>3.673</v>
       </c>
+      <c r="E12" t="n">
+        <v>3.81426923076923</v>
+      </c>
+      <c r="F12"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>2</v>
+      <c r="A13" t="s">
+        <v>17</v>
       </c>
       <c r="B13" t="n">
         <v>43.209351</v>
@@ -867,25 +738,16 @@
         <v>3.059172</v>
       </c>
       <c r="D13" t="n">
-        <v>59.459473</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="n">
         <v>3.406</v>
       </c>
+      <c r="E13" t="n">
+        <v>3.537</v>
+      </c>
+      <c r="F13"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
+      <c r="A14" t="s">
+        <v>18</v>
       </c>
       <c r="B14" t="n">
         <v>43.209648</v>
@@ -894,27 +756,18 @@
         <v>3.060734</v>
       </c>
       <c r="D14" t="n">
-        <v>67.143371</v>
+        <v>4.524</v>
       </c>
       <c r="E14" t="n">
+        <v>4.698</v>
+      </c>
+      <c r="F14" t="n">
         <v>8.16</v>
       </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.524</v>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
+      <c r="A15" t="s">
+        <v>19</v>
       </c>
       <c r="B15" t="n">
         <v>43.209648</v>
@@ -923,25 +776,16 @@
         <v>3.060734</v>
       </c>
       <c r="D15" t="n">
-        <v>67.143371</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" t="n">
         <v>4.895</v>
       </c>
+      <c r="E15" t="n">
+        <v>5.08326923076923</v>
+      </c>
+      <c r="F15"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
+      <c r="A16" t="s">
+        <v>20</v>
       </c>
       <c r="B16" t="n">
         <v>43.209655</v>
@@ -950,25 +794,16 @@
         <v>3.060731</v>
       </c>
       <c r="D16" t="n">
-        <v>64.262817</v>
-      </c>
-      <c r="E16"/>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" t="n">
         <v>8.905</v>
       </c>
+      <c r="E16" t="n">
+        <v>9.2475</v>
+      </c>
+      <c r="F16"/>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>3</v>
+      <c r="A17" t="s">
+        <v>21</v>
       </c>
       <c r="B17" t="n">
         <v>43.209655</v>
@@ -977,25 +812,16 @@
         <v>3.060731</v>
       </c>
       <c r="D17" t="n">
-        <v>64.262817</v>
-      </c>
-      <c r="E17"/>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" t="n">
         <v>10.699</v>
       </c>
+      <c r="E17" t="n">
+        <v>11.1105</v>
+      </c>
+      <c r="F17"/>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>3</v>
+      <c r="A18" t="s">
+        <v>22</v>
       </c>
       <c r="B18" t="n">
         <v>43.209652</v>
@@ -1004,25 +830,16 @@
         <v>3.060657</v>
       </c>
       <c r="D18" t="n">
-        <v>50.152222</v>
-      </c>
-      <c r="E18"/>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" t="n">
         <v>5.837</v>
       </c>
+      <c r="E18" t="n">
+        <v>6.0615</v>
+      </c>
+      <c r="F18"/>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>3</v>
+      <c r="A19" t="s">
+        <v>23</v>
       </c>
       <c r="B19" t="n">
         <v>43.209652</v>
@@ -1031,25 +848,16 @@
         <v>3.060657</v>
       </c>
       <c r="D19" t="n">
-        <v>50.152222</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" t="n">
         <v>5.473</v>
       </c>
+      <c r="E19" t="n">
+        <v>5.6835</v>
+      </c>
+      <c r="F19"/>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
+      <c r="A20" t="s">
+        <v>24</v>
       </c>
       <c r="B20" t="n">
         <v>43.209518</v>
@@ -1058,27 +866,18 @@
         <v>3.06087</v>
       </c>
       <c r="D20" t="n">
-        <v>53.064209</v>
+        <v>3.986</v>
       </c>
       <c r="E20" t="n">
+        <v>4.13930769230769</v>
+      </c>
+      <c r="F20" t="n">
         <v>8.1</v>
       </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.986</v>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>4</v>
+      <c r="A21" t="s">
+        <v>25</v>
       </c>
       <c r="B21" t="n">
         <v>43.209518</v>
@@ -1087,25 +886,16 @@
         <v>3.06087</v>
       </c>
       <c r="D21" t="n">
-        <v>53.064209</v>
-      </c>
-      <c r="E21"/>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" t="n">
         <v>5.791</v>
       </c>
+      <c r="E21" t="n">
+        <v>6.01373076923077</v>
+      </c>
+      <c r="F21"/>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>4</v>
+      <c r="A22" t="s">
+        <v>26</v>
       </c>
       <c r="B22" t="n">
         <v>43.20954</v>
@@ -1114,25 +904,16 @@
         <v>3.060895</v>
       </c>
       <c r="D22" t="n">
-        <v>46.788941</v>
-      </c>
-      <c r="E22"/>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" t="n">
         <v>3.361</v>
       </c>
+      <c r="E22" t="n">
+        <v>3.49026923076923</v>
+      </c>
+      <c r="F22"/>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>4</v>
+      <c r="A23" t="s">
+        <v>27</v>
       </c>
       <c r="B23" t="n">
         <v>43.20954</v>
@@ -1141,25 +922,16 @@
         <v>3.060895</v>
       </c>
       <c r="D23" t="n">
-        <v>46.788941</v>
-      </c>
-      <c r="E23"/>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" t="n">
         <v>3.913</v>
       </c>
+      <c r="E23" t="n">
+        <v>4.0635</v>
+      </c>
+      <c r="F23"/>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>4</v>
+      <c r="A24" t="s">
+        <v>28</v>
       </c>
       <c r="B24" t="n">
         <v>43.209539</v>
@@ -1168,25 +940,16 @@
         <v>3.060896</v>
       </c>
       <c r="D24" t="n">
-        <v>47.797668</v>
-      </c>
-      <c r="E24"/>
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" t="n">
         <v>5.025</v>
       </c>
+      <c r="E24" t="n">
+        <v>5.21826923076923</v>
+      </c>
+      <c r="F24"/>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>4</v>
+      <c r="A25" t="s">
+        <v>29</v>
       </c>
       <c r="B25" t="n">
         <v>43.209539</v>
@@ -1195,25 +958,16 @@
         <v>3.060896</v>
       </c>
       <c r="D25" t="n">
-        <v>47.797668</v>
-      </c>
-      <c r="E25"/>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" t="n">
         <v>6.526</v>
       </c>
+      <c r="E25" t="n">
+        <v>6.777</v>
+      </c>
+      <c r="F25"/>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>5</v>
+      <c r="A26" t="s">
+        <v>30</v>
       </c>
       <c r="B26" t="n">
         <v>43.20946</v>
@@ -1222,25 +976,16 @@
         <v>3.060884</v>
       </c>
       <c r="D26" t="n">
-        <v>52.705566</v>
-      </c>
-      <c r="E26"/>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" t="n">
         <v>3.484</v>
       </c>
+      <c r="E26" t="n">
+        <v>3.618</v>
+      </c>
+      <c r="F26"/>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>5</v>
+      <c r="A27" t="s">
+        <v>31</v>
       </c>
       <c r="B27" t="n">
         <v>43.20946</v>
@@ -1249,25 +994,16 @@
         <v>3.060884</v>
       </c>
       <c r="D27" t="n">
-        <v>52.705566</v>
-      </c>
-      <c r="E27"/>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" t="n">
         <v>3.556</v>
       </c>
+      <c r="E27" t="n">
+        <v>3.69276923076923</v>
+      </c>
+      <c r="F27"/>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>5</v>
+      <c r="A28" t="s">
+        <v>32</v>
       </c>
       <c r="B28" t="n">
         <v>43.209434</v>
@@ -1276,27 +1012,18 @@
         <v>3.060855</v>
       </c>
       <c r="D28" t="n">
-        <v>53.034302</v>
+        <v>3.796</v>
       </c>
       <c r="E28" t="n">
+        <v>3.942</v>
+      </c>
+      <c r="F28" t="n">
         <v>8.14</v>
       </c>
-      <c r="F28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.796</v>
-      </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>5</v>
+      <c r="A29" t="s">
+        <v>33</v>
       </c>
       <c r="B29" t="n">
         <v>43.209434</v>
@@ -1305,25 +1032,16 @@
         <v>3.060855</v>
       </c>
       <c r="D29" t="n">
-        <v>53.034302</v>
-      </c>
-      <c r="E29"/>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" t="n">
         <v>4.595</v>
       </c>
+      <c r="E29" t="n">
+        <v>4.77173076923077</v>
+      </c>
+      <c r="F29"/>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>5</v>
+      <c r="A30" t="s">
+        <v>34</v>
       </c>
       <c r="B30" t="n">
         <v>43.209428</v>
@@ -1332,25 +1050,16 @@
         <v>3.060851</v>
       </c>
       <c r="D30" t="n">
-        <v>51.796204</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" t="n">
         <v>4.648</v>
       </c>
+      <c r="E30" t="n">
+        <v>4.82676923076923</v>
+      </c>
+      <c r="F30"/>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>5</v>
+      <c r="A31" t="s">
+        <v>35</v>
       </c>
       <c r="B31" t="n">
         <v>43.209428</v>
@@ -1359,25 +1068,16 @@
         <v>3.060851</v>
       </c>
       <c r="D31" t="n">
-        <v>51.796204</v>
-      </c>
-      <c r="E31"/>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" t="n">
         <v>4.862</v>
       </c>
+      <c r="E31" t="n">
+        <v>5.049</v>
+      </c>
+      <c r="F31"/>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>6</v>
+      <c r="A32" t="s">
+        <v>36</v>
       </c>
       <c r="B32" t="n">
         <v>43.209381</v>
@@ -1386,27 +1086,18 @@
         <v>3.060561</v>
       </c>
       <c r="D32" t="n">
-        <v>51.127625</v>
+        <v>3.939</v>
       </c>
       <c r="E32" t="n">
+        <v>4.0905</v>
+      </c>
+      <c r="F32" t="n">
         <v>8.15</v>
       </c>
-      <c r="F32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.939</v>
-      </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>6</v>
+      <c r="A33" t="s">
+        <v>37</v>
       </c>
       <c r="B33" t="n">
         <v>43.209381</v>
@@ -1415,25 +1106,16 @@
         <v>3.060561</v>
       </c>
       <c r="D33" t="n">
-        <v>51.127625</v>
-      </c>
-      <c r="E33"/>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" t="n">
         <v>3.79</v>
       </c>
+      <c r="E33" t="n">
+        <v>3.93576923076923</v>
+      </c>
+      <c r="F33"/>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>6</v>
+      <c r="A34" t="s">
+        <v>38</v>
       </c>
       <c r="B34" t="n">
         <v>43.209357</v>
@@ -1442,25 +1124,16 @@
         <v>3.06058</v>
       </c>
       <c r="D34" t="n">
-        <v>50.36731</v>
-      </c>
-      <c r="E34"/>
-      <c r="F34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" t="n">
         <v>4.296</v>
       </c>
+      <c r="E34" t="n">
+        <v>4.46123076923077</v>
+      </c>
+      <c r="F34"/>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>6</v>
+      <c r="A35" t="s">
+        <v>39</v>
       </c>
       <c r="B35" t="n">
         <v>43.209357</v>
@@ -1469,25 +1142,16 @@
         <v>3.06058</v>
       </c>
       <c r="D35" t="n">
-        <v>50.36731</v>
-      </c>
-      <c r="E35"/>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" t="n">
         <v>3.536</v>
       </c>
+      <c r="E35" t="n">
+        <v>3.672</v>
+      </c>
+      <c r="F35"/>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>6</v>
+      <c r="A36" t="s">
+        <v>40</v>
       </c>
       <c r="B36" t="n">
         <v>43.20935</v>
@@ -1496,25 +1160,16 @@
         <v>3.060593</v>
       </c>
       <c r="D36" t="n">
-        <v>49.99762</v>
-      </c>
-      <c r="E36"/>
-      <c r="F36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" t="s">
-        <v>47</v>
-      </c>
-      <c r="H36" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" t="n">
         <v>4.414</v>
       </c>
+      <c r="E36" t="n">
+        <v>4.58376923076923</v>
+      </c>
+      <c r="F36"/>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>6</v>
+      <c r="A37" t="s">
+        <v>41</v>
       </c>
       <c r="B37" t="n">
         <v>43.20935</v>
@@ -1523,25 +1178,16 @@
         <v>3.060593</v>
       </c>
       <c r="D37" t="n">
-        <v>49.99762</v>
-      </c>
-      <c r="E37"/>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" t="n">
         <v>4.394</v>
       </c>
+      <c r="E37" t="n">
+        <v>4.563</v>
+      </c>
+      <c r="F37"/>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>7</v>
+      <c r="A38" t="s">
+        <v>42</v>
       </c>
       <c r="B38" t="n">
         <v>43.209883</v>
@@ -1550,25 +1196,16 @@
         <v>3.060949</v>
       </c>
       <c r="D38" t="n">
-        <v>63.554382</v>
-      </c>
-      <c r="E38"/>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" t="n">
         <v>4.342</v>
       </c>
+      <c r="E38" t="n">
+        <v>4.509</v>
+      </c>
+      <c r="F38"/>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>7</v>
+      <c r="A39" t="s">
+        <v>43</v>
       </c>
       <c r="B39" t="n">
         <v>43.209883</v>
@@ -1577,25 +1214,16 @@
         <v>3.060949</v>
       </c>
       <c r="D39" t="n">
-        <v>63.554382</v>
-      </c>
-      <c r="E39"/>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>50</v>
-      </c>
-      <c r="H39" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" t="n">
         <v>3.686</v>
       </c>
+      <c r="E39" t="n">
+        <v>3.82776923076923</v>
+      </c>
+      <c r="F39"/>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>7</v>
+      <c r="A40" t="s">
+        <v>44</v>
       </c>
       <c r="B40" t="n">
         <v>43.209726</v>
@@ -1604,25 +1232,16 @@
         <v>3.061066</v>
       </c>
       <c r="D40" t="n">
-        <v>52.906311</v>
-      </c>
-      <c r="E40"/>
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40" t="n">
         <v>3.718</v>
       </c>
+      <c r="E40" t="n">
+        <v>3.861</v>
+      </c>
+      <c r="F40"/>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>7</v>
+      <c r="A41" t="s">
+        <v>45</v>
       </c>
       <c r="B41" t="n">
         <v>43.209726</v>
@@ -1631,25 +1250,16 @@
         <v>3.061066</v>
       </c>
       <c r="D41" t="n">
-        <v>52.906311</v>
-      </c>
-      <c r="E41"/>
-      <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>52</v>
-      </c>
-      <c r="H41" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" t="n">
         <v>3.023</v>
       </c>
+      <c r="E41" t="n">
+        <v>3.13926923076923</v>
+      </c>
+      <c r="F41"/>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>7</v>
+      <c r="A42" t="s">
+        <v>46</v>
       </c>
       <c r="B42" t="n">
         <v>43.209733</v>
@@ -1658,27 +1268,18 @@
         <v>3.061067</v>
       </c>
       <c r="D42" t="n">
-        <v>54.366638</v>
+        <v>4.953</v>
       </c>
       <c r="E42" t="n">
+        <v>5.1435</v>
+      </c>
+      <c r="F42" t="n">
         <v>7.92</v>
       </c>
-      <c r="F42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" t="s">
-        <v>53</v>
-      </c>
-      <c r="H42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4.953</v>
-      </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>7</v>
+      <c r="A43" t="s">
+        <v>47</v>
       </c>
       <c r="B43" t="n">
         <v>43.209733</v>
@@ -1687,25 +1288,16 @@
         <v>3.061067</v>
       </c>
       <c r="D43" t="n">
-        <v>54.366638</v>
-      </c>
-      <c r="E43"/>
-      <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>54</v>
-      </c>
-      <c r="H43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" t="n">
         <v>3.639</v>
       </c>
+      <c r="E43" t="n">
+        <v>3.77896153846154</v>
+      </c>
+      <c r="F43"/>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>8</v>
+      <c r="A44" t="s">
+        <v>48</v>
       </c>
       <c r="B44" t="n">
         <v>43.209831</v>
@@ -1714,25 +1306,16 @@
         <v>3.061136</v>
       </c>
       <c r="D44" t="n">
-        <v>58.170471</v>
-      </c>
-      <c r="E44"/>
-      <c r="F44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" t="s">
-        <v>55</v>
-      </c>
-      <c r="H44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" t="n">
         <v>4.03</v>
       </c>
+      <c r="E44" t="n">
+        <v>4.185</v>
+      </c>
+      <c r="F44"/>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>8</v>
+      <c r="A45" t="s">
+        <v>49</v>
       </c>
       <c r="B45" t="n">
         <v>43.209831</v>
@@ -1741,25 +1324,16 @@
         <v>3.061136</v>
       </c>
       <c r="D45" t="n">
-        <v>58.170471</v>
-      </c>
-      <c r="E45"/>
-      <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="s">
-        <v>56</v>
-      </c>
-      <c r="H45" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" t="n">
         <v>6.012</v>
       </c>
+      <c r="E45" t="n">
+        <v>6.24323076923077</v>
+      </c>
+      <c r="F45"/>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>8</v>
+      <c r="A46" t="s">
+        <v>50</v>
       </c>
       <c r="B46" t="n">
         <v>43.209869</v>
@@ -1768,25 +1342,16 @@
         <v>3.061252</v>
       </c>
       <c r="D46" t="n">
-        <v>58.509338</v>
-      </c>
-      <c r="E46"/>
-      <c r="F46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" t="s">
-        <v>57</v>
-      </c>
-      <c r="H46" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" t="n">
         <v>2.984</v>
       </c>
+      <c r="E46" t="n">
+        <v>3.09876923076923</v>
+      </c>
+      <c r="F46"/>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>8</v>
+      <c r="A47" t="s">
+        <v>51</v>
       </c>
       <c r="B47" t="n">
         <v>43.209869</v>
@@ -1795,25 +1360,16 @@
         <v>3.061252</v>
       </c>
       <c r="D47" t="n">
-        <v>58.509338</v>
-      </c>
-      <c r="E47"/>
-      <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
-        <v>58</v>
-      </c>
-      <c r="H47" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" t="n">
         <v>3.601</v>
       </c>
+      <c r="E47" t="n">
+        <v>3.7395</v>
+      </c>
+      <c r="F47"/>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>8</v>
+      <c r="A48" t="s">
+        <v>52</v>
       </c>
       <c r="B48" t="n">
         <v>43.209845</v>
@@ -1822,27 +1378,18 @@
         <v>3.061256</v>
       </c>
       <c r="D48" t="n">
-        <v>56.382751</v>
+        <v>2.951</v>
       </c>
       <c r="E48" t="n">
+        <v>3.0645</v>
+      </c>
+      <c r="F48" t="n">
         <v>7.92</v>
       </c>
-      <c r="F48" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" t="s">
-        <v>59</v>
-      </c>
-      <c r="H48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2.951</v>
-      </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>8</v>
+      <c r="A49" t="s">
+        <v>53</v>
       </c>
       <c r="B49" t="n">
         <v>43.209845</v>
@@ -1851,21 +1398,12 @@
         <v>3.061256</v>
       </c>
       <c r="D49" t="n">
-        <v>56.382751</v>
-      </c>
-      <c r="E49"/>
-      <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>60</v>
-      </c>
-      <c r="H49" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" t="n">
         <v>3.763</v>
       </c>
+      <c r="E49" t="n">
+        <v>3.90773076923077</v>
+      </c>
+      <c r="F49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rmarkdown_writting/Material_and_method/sample_table_with_new_ECe_values.xlsx
+++ b/Rmarkdown_writting/Material_and_method/sample_table_with_new_ECe_values.xlsx
@@ -32,24 +32,6 @@
     <t xml:space="preserve">pH_water</t>
   </si>
   <si>
-    <t xml:space="preserve">B_1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B_1_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_1_3</t>
-  </si>
-  <si>
     <t xml:space="preserve">B_2_1</t>
   </si>
   <si>
@@ -174,6 +156,24 @@
   </si>
   <si>
     <t xml:space="preserve">R_8_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B_9_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_9_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B_9_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_9_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B_9_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_9_3</t>
   </si>
 </sst>
 </file>
